--- a/outputs/SORs/SOR Testing_Corp Trade Compliance.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Trade Compliance.xlsx
@@ -15,16 +15,17 @@
     <sheet name="Indianapolis Indiana" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Milwaukee Pmc Hq Wisconsin" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Pharr Texas" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Rock Road Radford Virginia" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Ciserano Italy" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Soria Spain" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Modrice Czech Republic" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Piedras Negras Fasco Mexico" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Rock Road Radford Virginia" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Ciserano Italy" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Soria Spain" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Modrice Czech Republic" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -38,7 +39,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -143,6 +144,9 @@
     <t xml:space="preserve">Pharr Texas</t>
   </si>
   <si>
+    <t xml:space="preserve">Piedras Negras Fasco Mexico</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rock Road Radford Virginia</t>
   </si>
   <si>
@@ -159,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -173,6 +177,7 @@
     <numFmt numFmtId="175" formatCode="0.0%"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -208,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -223,6 +228,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1137,77 +1143,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1312,7 +1247,9 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="H2" s="11" t="n">
         <v>0</v>
       </c>
@@ -1381,7 +1318,9 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="H3" s="11" t="n">
         <v>0</v>
       </c>
@@ -1796,116 +1735,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2011,9 +1840,15 @@
         <v>27</v>
       </c>
       <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="H2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" s="13" t="n">
         <v>0</v>
       </c>
@@ -2074,9 +1909,15 @@
         <v>28</v>
       </c>
       <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="H3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" s="13" t="n">
         <v>0</v>
       </c>
@@ -2185,6 +2026,398 @@
         <v>0</v>
       </c>
       <c r="W4" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/outputs/SORs/SOR Testing_Corp Trade Compliance.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Trade Compliance.xlsx
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M4" s="6" t="n">
         <v>0</v>

--- a/outputs/SORs/SOR Testing_Corp Trade Compliance.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Trade Compliance.xlsx
@@ -1014,9 +1014,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="10"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1085,9 +1083,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3712,7 +3708,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0</v>
+        <v>0.3571</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3783,7 +3779,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0</v>
+        <v>0.3571</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3854,7 +3850,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
+        <v>0.3571</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3878,37 +3874,37 @@
         <v>0.5</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0</v>
+        <v>0.21425</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0</v>
+        <v>0.21425</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0</v>
+        <v>0.21425</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_Corp Trade Compliance.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Trade Compliance.xlsx
@@ -20,12 +20,19 @@
     <sheet name="Ciserano Italy" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Soria Spain" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Modrice Czech Republic" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Apodaca Pmc Plant 2 Mexico" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Betzdorf Germany" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Istanbul Turkey" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Juarez Mej SS" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Lavergne Tennessee" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Main St Radford Virginia" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Monterrey Rbm Mexico" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -158,12 +165,33 @@
   <si>
     <t xml:space="preserve">Modrice Czech Republic</t>
   </si>
+  <si>
+    <t xml:space="preserve">Apodaca Pmc Plant 2 Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betzdorf Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Istanbul Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juarez Mej SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavergne Tennessee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main St Radford Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey Rbm Mexico</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="14">
+  <numFmts count="21">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -178,6 +206,13 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="181" formatCode="0.0%"/>
+    <numFmt numFmtId="182" formatCode="0.0%"/>
+    <numFmt numFmtId="183" formatCode="0.0%"/>
+    <numFmt numFmtId="184" formatCode="0.0%"/>
+    <numFmt numFmtId="185" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -213,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -229,6 +264,13 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,7 +1056,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1083,7 +1127,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1136,6 +1182,77 @@
         <v>0</v>
       </c>
       <c r="W3" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2423,6 +2540,786 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -2515,9 +3412,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2586,9 +3481,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2644,74 +3537,315 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2" t="n">
+      <c r="G2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3708,7 +4842,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.3571</v>
+        <v>0.3704</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3779,7 +4913,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.3571</v>
+        <v>0.3704</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3850,7 +4984,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.3571</v>
+        <v>0.3704</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3874,37 +5008,37 @@
         <v>0.5</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.0714166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.21425</v>
+        <v>0.4348</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.21425</v>
+        <v>0.1852</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.21425</v>
+        <v>0.1852</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.857</v>
+        <v>0.7408</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_Corp Trade Compliance.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Trade Compliance.xlsx
@@ -5014,31 +5014,31 @@
         <v>0.4348</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.1852</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1852</v>
+        <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7408</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
